--- a/CTC.xlsx
+++ b/CTC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="24735" windowHeight="11145"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -342,6 +342,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="A120" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>rescaling</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O123" authorId="0">
       <text>
         <r>
@@ -553,12 +567,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="A134" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>rescaling</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="52">
   <si>
     <t>blank</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -749,11 +777,19 @@
     <t>확률합</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>alpha^*beta^</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -765,7 +801,7 @@
     <numFmt numFmtId="182" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="183" formatCode="_-* #,##0.0000000000000_-;\-* #,##0.0000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1192,7 +1228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1371,6 +1407,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1463,7 +1505,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1498,7 +1539,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1674,14 +1714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:AA129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A5:AA170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="6" width="12.875" customWidth="1"/>
@@ -1693,7 +1733,7 @@
     <col min="27" max="27" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -1728,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -1752,7 +1792,7 @@
         <v>42</v>
       </c>
       <c r="I6" s="2">
-        <v>0.35140475291221579</v>
+        <v>0.35140475291221601</v>
       </c>
       <c r="J6" s="2">
         <v>0.22371905087369007</v>
@@ -1776,7 +1816,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27">
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
@@ -1800,7 +1840,7 @@
         <v>43</v>
       </c>
       <c r="I7" s="2">
-        <v>0.1808517385031333</v>
+        <v>0.18085173850313299</v>
       </c>
       <c r="J7" s="23">
         <f>0.375488842658677</f>
@@ -1825,7 +1865,7 @@
         <v>1.0575381495752194E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -1869,7 +1909,7 @@
         <v>3.7548884265867699E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1908,7 +1948,7 @@
         <v>0.11885010230613731</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27">
       <c r="H10" s="14" t="s">
         <v>49</v>
       </c>
@@ -1934,13 +1974,13 @@
       </c>
       <c r="Z10" s="24"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27">
       <c r="Z11">
         <f>(AA7-Y7)/(2*Z8)</f>
         <v>8.7616780806256723E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
@@ -1975,7 +2015,7 @@
       </c>
       <c r="Z12" s="25"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2023,7 +2063,7 @@
       </c>
       <c r="Z13" s="25"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2050,7 +2090,7 @@
         <v>0.1808517385031333</v>
       </c>
       <c r="J14" s="2">
-        <v>0.15446546710483236</v>
+        <v>0.154465467104832</v>
       </c>
       <c r="K14" s="2">
         <v>0.10809907723401639</v>
@@ -2063,14 +2103,14 @@
       </c>
       <c r="N14" s="6">
         <f t="shared" ref="N14:N19" si="1">PRODUCT(I14:M14)</f>
-        <v>4.2171655392580003E-5</v>
+        <v>4.2171655392579908E-5</v>
       </c>
       <c r="R14">
         <f t="shared" ref="R14:R16" si="2">PRODUCT(I14:K14)</f>
-        <v>3.0197853696149498E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+        <v>3.0197853696149425E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2097,7 +2137,7 @@
         <v>0.1808517385031333</v>
       </c>
       <c r="J15" s="2">
-        <v>0.37548884265867677</v>
+        <v>0.37548884265867699</v>
       </c>
       <c r="K15" s="2">
         <v>0.10809907723401639</v>
@@ -2110,14 +2150,14 @@
       </c>
       <c r="N15" s="6">
         <f t="shared" si="1"/>
-        <v>1.02514732730608E-4</v>
+        <v>1.0251473273060807E-4</v>
       </c>
       <c r="R15">
         <f t="shared" si="2"/>
-        <v>7.3407715961831882E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+        <v>7.3407715961831925E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2144,7 +2184,7 @@
         <v>0.1808517385031333</v>
       </c>
       <c r="J16" s="2">
-        <v>0.24632663936280097</v>
+        <v>0.246326639362801</v>
       </c>
       <c r="K16" s="2">
         <v>0.10809907723401639</v>
@@ -2168,7 +2208,7 @@
         <v>3.1393520685191384E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2212,7 +2252,7 @@
       </c>
       <c r="U17" s="18"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2256,7 +2296,7 @@
       </c>
       <c r="U18" s="18"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2303,7 +2343,7 @@
         <v>3.1393520685191398E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21">
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
       <c r="D20" s="55"/>
@@ -2315,7 +2355,7 @@
         <v>1.0542482372129772E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2327,7 +2367,7 @@
         <v>6.8549273374158561</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2335,7 +2375,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2343,7 +2383,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2399,7 +2439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
@@ -2425,7 +2465,7 @@
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -2451,7 +2491,7 @@
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -2477,7 +2517,7 @@
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -2503,7 +2543,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -2529,7 +2569,7 @@
       <c r="S31" s="7"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -2555,7 +2595,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="7"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -2581,7 +2621,7 @@
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20">
       <c r="B34" s="2">
         <v>0.39953931999999998</v>
       </c>
@@ -2628,7 +2668,7 @@
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20">
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
@@ -2684,7 +2724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -2710,7 +2750,7 @@
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -2736,7 +2776,7 @@
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20">
       <c r="A40" s="3" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2802,7 @@
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20">
       <c r="A41" s="3">
         <v>2</v>
       </c>
@@ -2788,7 +2828,7 @@
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20">
       <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
@@ -2814,7 +2854,7 @@
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -2840,7 +2880,7 @@
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20">
       <c r="A44" s="3" t="s">
         <v>0</v>
       </c>
@@ -2866,7 +2906,7 @@
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20">
       <c r="B45" s="2">
         <v>0.18085171</v>
       </c>
@@ -2913,7 +2953,7 @@
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20">
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
@@ -2933,7 +2973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
         <v>0</v>
       </c>
@@ -2943,7 +2983,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -2953,7 +2993,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
         <v>0</v>
       </c>
@@ -2963,7 +3003,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="3">
         <v>2</v>
       </c>
@@ -2973,7 +3013,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="3" t="s">
         <v>0</v>
       </c>
@@ -2983,7 +3023,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="3">
         <v>2</v>
       </c>
@@ -2993,7 +3033,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
         <v>0</v>
       </c>
@@ -3003,7 +3043,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="B56" s="2">
         <v>0.18085171</v>
       </c>
@@ -3020,7 +3060,7 @@
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="17.25">
       <c r="A60" s="26" t="s">
         <v>36</v>
       </c>
@@ -3040,7 +3080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
         <v>0</v>
       </c>
@@ -3064,7 +3104,7 @@
         <v>2.0331503897692659E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
         <v>43</v>
       </c>
@@ -3088,7 +3128,7 @@
         <v>3.5856737790261391E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
         <v>0</v>
       </c>
@@ -3110,7 +3150,7 @@
         <v>1.0401419689087846E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
         <v>44</v>
       </c>
@@ -3132,7 +3172,7 @@
         <v>1.5147565938106887E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
         <v>0</v>
       </c>
@@ -3154,7 +3194,7 @@
         <v>5.9354920904657093E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" s="3" t="s">
         <v>44</v>
       </c>
@@ -3176,7 +3216,7 @@
         <v>8.124622989185554E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
         <v>0</v>
       </c>
@@ -3202,7 +3242,29 @@
         <v>1.0542482372129774E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
+      <c r="B68">
+        <f>SUM(B61:B67)</f>
+        <v>0.58039108563834296</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:F68" si="8">SUM(C61:C67)</f>
+        <v>0.3521293581507588</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="8"/>
+        <v>0.24729333588102559</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="8"/>
+        <v>0.14120318309526855</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="8"/>
+        <v>6.8598778784111733E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17.25">
       <c r="A71" s="26" t="s">
         <v>37</v>
       </c>
@@ -3222,7 +3284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
         <v>0</v>
       </c>
@@ -3231,30 +3293,30 @@
         <v>2.2647650349359551E-4</v>
       </c>
       <c r="C72" s="8">
-        <f t="shared" ref="C72:D72" si="8">SUM(D72:D73)*J9</f>
+        <f t="shared" ref="C72:D72" si="9">SUM(D72:D73)*J9</f>
         <v>0</v>
       </c>
       <c r="D72" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="19"/>
       <c r="G72" s="20">
         <f>B72+B73</f>
-        <v>1.0542482372129774E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.0542482372129759E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B73" s="9">
-        <f t="shared" ref="B73:C73" si="9">SUM(C73:C75)*I7</f>
-        <v>8.2777173371938184E-4</v>
+        <f t="shared" ref="B73:C73" si="10">SUM(C73:C75)*I7</f>
+        <v>8.2777173371938043E-4</v>
       </c>
       <c r="C73" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.6684405457806521E-4</v>
       </c>
       <c r="D73" s="8">
@@ -3264,20 +3326,20 @@
       <c r="E73" s="8"/>
       <c r="F73" s="19"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B74" s="8">
-        <f t="shared" ref="B74:D74" si="10">SUM(C74:C75)*I9</f>
+        <f t="shared" ref="B74:D74" si="11">SUM(C74:C75)*I9</f>
         <v>1.602244529572353E-3</v>
       </c>
       <c r="C74" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.3318357756261973E-4</v>
       </c>
       <c r="D74" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E74" s="8">
@@ -3286,7 +3348,7 @@
       </c>
       <c r="F74" s="19"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
         <v>44</v>
       </c>
@@ -3295,33 +3357,33 @@
         <v>4.7318671408379991E-4</v>
       </c>
       <c r="C75" s="8">
-        <f t="shared" ref="C75:E75" si="11">SUM(D75:D76)*J8</f>
+        <f t="shared" ref="C75:E75" si="12">SUM(D75:D76)*J8</f>
         <v>3.7770460557909383E-3</v>
       </c>
       <c r="D75" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.5096162393654182E-3</v>
       </c>
       <c r="E75" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F75" s="19"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B76" s="8">
-        <f t="shared" ref="B76:D76" si="12">SUM(C76:C77)*I9</f>
+        <f t="shared" ref="B76:D76" si="13">SUM(C76:C77)*I9</f>
         <v>2.2404290751183754E-3</v>
       </c>
       <c r="C76" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.1607522255436391E-3</v>
       </c>
       <c r="D76" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.382386967820087E-2</v>
       </c>
       <c r="E76" s="8">
@@ -3330,7 +3392,7 @@
       </c>
       <c r="F76" s="19"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
         <v>44</v>
       </c>
@@ -3339,35 +3401,35 @@
         <v>2.0158775988132456E-4</v>
       </c>
       <c r="C77" s="8">
-        <f t="shared" ref="C77:E77" si="13">(D77+D78)*J8</f>
+        <f t="shared" ref="C77:E77" si="14">(D77+D78)*J8</f>
         <v>2.4467782747256655E-3</v>
       </c>
       <c r="D77" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.6386471858338935E-3</v>
       </c>
       <c r="E77" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.6906160443999582E-2</v>
       </c>
       <c r="F77" s="8">
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7">
       <c r="A78" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B78" s="8">
-        <f t="shared" ref="B78:D78" si="14">C78*I9</f>
+        <f t="shared" ref="B78:D78" si="15">C78*I9</f>
         <v>2.0331503897692675E-4</v>
       </c>
       <c r="C78" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0887363268409692E-4</v>
       </c>
       <c r="D78" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.2944168183477243E-3</v>
       </c>
       <c r="E78" s="8">
@@ -3378,7 +3440,7 @@
         <v>0.11885010230613731</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
         <v>32</v>
       </c>
@@ -3398,7 +3460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="3" t="s">
         <v>0</v>
       </c>
@@ -3407,48 +3469,48 @@
         <v>2.2647650349359532E-4</v>
       </c>
       <c r="C83" s="22">
-        <f t="shared" ref="C83:F83" si="15">C61*C72/J9</f>
+        <f t="shared" ref="C83:F83" si="16">C61*C72/J9</f>
         <v>0</v>
       </c>
       <c r="D83" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E83" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F83" s="22">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="3">
         <v>1</v>
       </c>
       <c r="B84" s="22">
         <f>B62*B73/I7</f>
-        <v>8.2777173371938184E-4</v>
+        <v>8.2777173371938173E-4</v>
       </c>
       <c r="C84" s="22">
-        <f t="shared" ref="C84:F84" si="16">C62*C73/J7</f>
+        <f t="shared" ref="C84:F84" si="17">C62*C73/J7</f>
         <v>3.2899123622420339E-4</v>
       </c>
       <c r="D84" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E84" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F84" s="22">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="3" t="s">
         <v>0</v>
       </c>
@@ -3457,23 +3519,23 @@
         <v>0</v>
       </c>
       <c r="C85" s="22">
-        <f t="shared" ref="C85:F85" si="17">C63*C74/J9</f>
+        <f t="shared" ref="C85:F85" si="18">C63*C74/J9</f>
         <v>4.2171655392580003E-5</v>
       </c>
       <c r="D85" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E85" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F85" s="22">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="3">
         <v>2</v>
       </c>
@@ -3482,23 +3544,23 @@
         <v>0</v>
       </c>
       <c r="C86" s="22">
-        <f t="shared" ref="C86:F86" si="18">C64*C75/J8</f>
+        <f t="shared" ref="C86:F86" si="19">C64*C75/J8</f>
         <v>6.8308534559619386E-4</v>
       </c>
       <c r="D86" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.3841418307968534E-4</v>
       </c>
       <c r="E86" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F86" s="22">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
         <v>0</v>
       </c>
@@ -3507,23 +3569,23 @@
         <v>0</v>
       </c>
       <c r="C87" s="22">
-        <f t="shared" ref="C87:F87" si="19">C65*C76/J9</f>
+        <f t="shared" ref="C87:F87" si="20">C65*C76/J9</f>
         <v>0</v>
       </c>
       <c r="D87" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.1583405413329182E-4</v>
       </c>
       <c r="E87" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.796991188323226E-4</v>
       </c>
       <c r="F87" s="22">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="3">
         <v>2</v>
       </c>
@@ -3532,23 +3594,23 @@
         <v>0</v>
       </c>
       <c r="C88" s="22">
-        <f t="shared" ref="C88:F88" si="20">C66*C77/J8</f>
+        <f t="shared" ref="C88:F88" si="21">C66*C77/J8</f>
         <v>0</v>
       </c>
       <c r="D88" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E88" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.7454911838065462E-4</v>
       </c>
       <c r="F88" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.124622989185554E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
         <v>0</v>
       </c>
@@ -3557,45 +3619,45 @@
         <v>0</v>
       </c>
       <c r="C89" s="22">
-        <f t="shared" ref="C89:F89" si="21">C67*C78/J9</f>
+        <f t="shared" ref="C89:F89" si="22">C67*C78/J9</f>
         <v>0</v>
       </c>
       <c r="D89" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E89" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F89" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.4178593829442193E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="B90" s="20">
         <f>SUM(B83:B89)</f>
+        <v>1.0542482372129769E-3</v>
+      </c>
+      <c r="C90" s="20">
+        <f t="shared" ref="C90:F90" si="23">SUM(C83:C89)</f>
+        <v>1.0542482372129774E-3</v>
+      </c>
+      <c r="D90" s="20">
+        <f t="shared" si="23"/>
         <v>1.0542482372129772E-3</v>
       </c>
-      <c r="C90" s="20">
-        <f t="shared" ref="C90:F90" si="22">SUM(C83:C89)</f>
+      <c r="E90" s="20">
+        <f t="shared" si="23"/>
+        <v>1.0542482372129772E-3</v>
+      </c>
+      <c r="F90" s="20">
+        <f t="shared" si="23"/>
         <v>1.0542482372129774E-3</v>
       </c>
-      <c r="D90" s="20">
-        <f t="shared" si="22"/>
-        <v>1.0542482372129772E-3</v>
-      </c>
-      <c r="E90" s="20">
-        <f t="shared" si="22"/>
-        <v>1.0542482372129772E-3</v>
-      </c>
-      <c r="F90" s="20">
-        <f t="shared" si="22"/>
-        <v>1.0542482372129774E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
         <v>35</v>
       </c>
@@ -3615,7 +3677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
         <v>0</v>
       </c>
@@ -3624,180 +3686,180 @@
         <v>9.0486274347296184E-5</v>
       </c>
       <c r="C96" s="22">
-        <f t="shared" ref="C96:F96" si="23">C61*C72</f>
+        <f t="shared" ref="C96:F96" si="24">C61*C72</f>
         <v>0</v>
       </c>
       <c r="D96" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E96" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F96" s="22">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B97" s="22">
-        <f t="shared" ref="B97:F102" si="24">B62*B73</f>
-        <v>1.4970395712690293E-4</v>
+        <f t="shared" ref="B97:F102" si="25">B62*B73</f>
+        <v>1.4970395712690266E-4</v>
       </c>
       <c r="C97" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.2353253853467354E-4</v>
       </c>
       <c r="D97" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E97" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F97" s="22">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="17.25" thickBot="1">
       <c r="A98" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B98" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C98" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.5140644487988925E-6</v>
       </c>
       <c r="D98" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E98" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F98" s="22">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="17.25" thickBot="1">
       <c r="A99" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B99" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C99" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.6826211757868791E-4</v>
       </c>
       <c r="D99" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.7392168637219108E-5</v>
       </c>
       <c r="E99" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F99" s="22">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="17.25" thickBot="1">
       <c r="A100" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B100" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C100" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D100" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.3985594016443272E-4</v>
       </c>
       <c r="E100" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.0756185248344847E-5</v>
       </c>
       <c r="F100" s="22">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="17.25" thickBot="1">
       <c r="A101" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B101" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C101" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D101" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E101" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.542482332516667E-5</v>
       </c>
       <c r="F101" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.2957839106413474E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19">
       <c r="A102" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B102" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C102" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D102" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E102" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F102" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.8736283502477449E-5</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19">
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
       <c r="D103" s="21"/>
       <c r="E103" s="21"/>
       <c r="F103" s="21"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -3813,7 +3875,7 @@
       <c r="R106" s="37"/>
       <c r="S106" s="54"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19">
       <c r="A107" s="2"/>
       <c r="B107" s="3" t="s">
         <v>1</v>
@@ -3842,28 +3904,23 @@
       <c r="R107" s="37"/>
       <c r="S107" s="54"/>
     </row>
-    <row r="108" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" ht="17.25" thickBot="1">
       <c r="A108" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B108" s="33">
-        <f>-B96/I6^2/$G$72</f>
-        <v>-0.69506362512328745</v>
+        <v>0</v>
       </c>
       <c r="C108" s="33">
-        <f>-C96/J6^2/$G$72</f>
         <v>0</v>
       </c>
       <c r="D108" s="33">
-        <f t="shared" ref="D108:F108" si="25">-D96/K6^2/$G$72</f>
         <v>0</v>
       </c>
       <c r="E108" s="33">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F108" s="33">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I108" s="37"/>
@@ -3878,17 +3935,17 @@
       <c r="R108" s="37"/>
       <c r="S108" s="54"/>
     </row>
-    <row r="109" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" ht="17.25" thickBot="1">
       <c r="A109" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B109" s="33">
         <f>-B97/I7^2/$G$72</f>
-        <v>-4.3415521376935162</v>
+        <v>-4.3415521376935295</v>
       </c>
       <c r="C109" s="33">
         <f>-C97/J7^2/$G$72</f>
-        <v>-0.83108301928852635</v>
+        <v>-0.83108301928852757</v>
       </c>
       <c r="D109" s="33">
         <f t="shared" ref="D109:F109" si="26">-D97/K7^2/$G$72</f>
@@ -3924,7 +3981,7 @@
       </c>
       <c r="S109" s="54"/>
     </row>
-    <row r="110" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" ht="17.25" thickBot="1">
       <c r="A110" s="3" t="s">
         <v>38</v>
       </c>
@@ -3934,19 +3991,19 @@
       </c>
       <c r="C110" s="31">
         <f>-(C99+C101)/J8^2/$G$72</f>
-        <v>-2.6303933813881839</v>
+        <v>-2.6303933813881875</v>
       </c>
       <c r="D110" s="33">
         <f t="shared" ref="D110:F110" si="27">-(D99+D101)/K8^2/$G$72</f>
-        <v>-3.8469782002908399</v>
+        <v>-3.8469782002908457</v>
       </c>
       <c r="E110" s="33">
         <f t="shared" si="27"/>
-        <v>-2.2385051286857123</v>
+        <v>-2.2385051286857158</v>
       </c>
       <c r="F110" s="33">
         <f t="shared" si="27"/>
-        <v>-6.7356192831727286</v>
+        <v>-6.7356192831727384</v>
       </c>
       <c r="I110" s="37"/>
       <c r="J110" s="42">
@@ -3963,29 +4020,29 @@
       <c r="R110" s="37"/>
       <c r="S110" s="54"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19">
       <c r="A111" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B111" s="33">
-        <f>-(B98+B100+B102)/I9^2/$G$72</f>
-        <v>0</v>
+        <f>-(B96+B98+B100+B102)/I9^2/$G$72</f>
+        <v>-0.53767607530137385</v>
       </c>
       <c r="C111" s="33">
-        <f>-(C98+C100+C102)/J9^2/$G$72</f>
-        <v>-0.25896815543514512</v>
+        <f>-(C96+C98+C100+C102)/J9^2/$G$72</f>
+        <v>-0.25896815543514551</v>
       </c>
       <c r="D111" s="33">
-        <f t="shared" ref="D111:F111" si="28">-(D98+D100+D102)/K9^2/$G$72</f>
-        <v>-2.5721932886264463</v>
+        <f t="shared" ref="D111:F111" si="28">-(D96+D98+D100+D102)/K9^2/$G$72</f>
+        <v>-2.5721932886264498</v>
       </c>
       <c r="E111" s="33">
         <f t="shared" si="28"/>
-        <v>-4.5050331041756948</v>
+        <v>-4.5050331041757019</v>
       </c>
       <c r="F111" s="33">
         <f t="shared" si="28"/>
-        <v>-1.9296946655719216</v>
+        <v>-1.9296946655719243</v>
       </c>
       <c r="I111" s="37"/>
       <c r="J111" s="38">
@@ -4001,7 +4058,7 @@
       <c r="R111" s="37"/>
       <c r="S111" s="54"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19">
       <c r="I112" s="37"/>
       <c r="J112" s="38">
         <v>0.15446546710483236</v>
@@ -4016,7 +4073,7 @@
       <c r="R112" s="37"/>
       <c r="S112" s="54"/>
     </row>
-    <row r="113" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19">
       <c r="I113" s="37"/>
       <c r="J113" s="37"/>
       <c r="K113" s="37"/>
@@ -4029,7 +4086,7 @@
       <c r="R113" s="37"/>
       <c r="S113" s="54"/>
     </row>
-    <row r="114" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19">
       <c r="I114" s="37"/>
       <c r="J114" s="37"/>
       <c r="K114" s="37"/>
@@ -4042,7 +4099,7 @@
       <c r="R114" s="37"/>
       <c r="S114" s="54"/>
     </row>
-    <row r="115" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" ht="17.25" thickBot="1">
       <c r="I115" s="37"/>
       <c r="J115" s="37"/>
       <c r="K115" s="37"/>
@@ -4055,7 +4112,7 @@
       <c r="R115" s="37"/>
       <c r="S115" s="54"/>
     </row>
-    <row r="116" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19">
       <c r="I116" s="37"/>
       <c r="J116" s="43">
         <v>0.22371905087369007</v>
@@ -4085,7 +4142,7 @@
       </c>
       <c r="S116" s="54"/>
     </row>
-    <row r="117" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19">
       <c r="I117" s="37"/>
       <c r="J117" s="47">
         <v>0</v>
@@ -4115,7 +4172,7 @@
       </c>
       <c r="S117" s="54"/>
     </row>
-    <row r="118" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19">
       <c r="I118" s="37"/>
       <c r="J118" s="47">
         <v>0</v>
@@ -4144,7 +4201,7 @@
       </c>
       <c r="S118" s="54"/>
     </row>
-    <row r="119" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" ht="17.25" thickBot="1">
       <c r="I119" s="37"/>
       <c r="J119" s="50">
         <v>0</v>
@@ -4173,7 +4230,25 @@
       </c>
       <c r="S119" s="54"/>
     </row>
-    <row r="120" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" ht="17.25">
+      <c r="A120" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="I120" s="37"/>
       <c r="J120" s="37"/>
       <c r="K120" s="37"/>
@@ -4186,7 +4261,27 @@
       <c r="R120" s="37"/>
       <c r="S120" s="54"/>
     </row>
-    <row r="121" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19">
+      <c r="A121" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="2">
+        <f>B61/B128</f>
+        <v>0.68839676732073929</v>
+      </c>
+      <c r="C121" s="8">
+        <f>B121*J9/C128</f>
+        <v>0.17526238711279954</v>
+      </c>
+      <c r="D121" s="8">
+        <f>C121*K9/D128</f>
+        <v>5.667555230796481E-2</v>
+      </c>
+      <c r="E121" s="8">
+        <f>D121*L9/E128</f>
+        <v>1.2115056872081238E-2</v>
+      </c>
+      <c r="F121" s="8"/>
       <c r="I121" s="37"/>
       <c r="J121" s="37"/>
       <c r="K121" s="37"/>
@@ -4199,14 +4294,54 @@
       <c r="R121" s="37"/>
       <c r="S121" s="54"/>
     </row>
-    <row r="122" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" ht="17.25" thickBot="1">
+      <c r="A122" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" s="2">
+        <f>B62/B128</f>
+        <v>0.31160323267926071</v>
+      </c>
+      <c r="C122" s="8">
+        <f>(B122+B121)*J7/C128</f>
+        <v>0.61889294939858697</v>
+      </c>
+      <c r="D122" s="8">
+        <f>(C122+C121)*K7/D128</f>
+        <v>0.54967604500837908</v>
+      </c>
+      <c r="E122" s="8">
+        <f>(D122+D121)*L7/E128</f>
+        <v>0.4540310684909154</v>
+      </c>
+      <c r="F122" s="8"/>
       <c r="O122" s="37"/>
       <c r="P122" s="37"/>
       <c r="Q122" s="37"/>
       <c r="R122" s="37"/>
       <c r="S122" s="54"/>
     </row>
-    <row r="123" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" ht="17.25" thickBot="1">
+      <c r="A123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" ref="B123:B127" si="29">B63/B$68</f>
+        <v>0</v>
+      </c>
+      <c r="C123" s="8">
+        <f>SUM(B122:B123)*J9/C128</f>
+        <v>7.9332630517695693E-2</v>
+      </c>
+      <c r="D123" s="8">
+        <f>SUM(C122:C123)*K9/D128</f>
+        <v>0.22578900715209047</v>
+      </c>
+      <c r="E123" s="8">
+        <f>SUM(D122:D123)*L9/E128</f>
+        <v>0.16576465207054097</v>
+      </c>
+      <c r="F123" s="8"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
@@ -4216,20 +4351,40 @@
         <v>0.17366883714986533</v>
       </c>
       <c r="P123" s="44">
-        <f t="shared" ref="P123:R123" si="29">K116-P116</f>
+        <f t="shared" ref="P123:R123" si="30">K116-P116</f>
         <v>-8.4004007493259564E-2</v>
       </c>
       <c r="Q123" s="44">
+        <f t="shared" si="30"/>
+        <v>-5.5107961963151576E-2</v>
+      </c>
+      <c r="R123" s="45">
+        <f t="shared" si="30"/>
+        <v>-3.4556867693454292E-2</v>
+      </c>
+      <c r="S123" s="54"/>
+    </row>
+    <row r="124" spans="1:19" ht="17.25" thickBot="1">
+      <c r="A124" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B124" s="2">
         <f t="shared" si="29"/>
-        <v>-5.5107961963151576E-2</v>
-      </c>
-      <c r="R123" s="45">
-        <f t="shared" si="29"/>
-        <v>-3.4556867693454292E-2</v>
-      </c>
-      <c r="S123" s="54"/>
-    </row>
-    <row r="124" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="C124" s="8">
+        <f>SUM(B122:B124)*J8/C128</f>
+        <v>0.12651203297091776</v>
+      </c>
+      <c r="D124" s="8">
+        <f>SUM(C122:C124)*K8/D128</f>
+        <v>0.12694851065576238</v>
+      </c>
+      <c r="E124" s="8">
+        <f>SUM(D122:D124)*L8/E128</f>
+        <v>0.31779988347251575</v>
+      </c>
+      <c r="F124" s="8"/>
       <c r="J124" s="34">
         <v>0</v>
       </c>
@@ -4243,70 +4398,136 @@
         <v>-0.25896815543514512</v>
       </c>
       <c r="O124" s="47">
-        <f t="shared" ref="O124:O126" si="30">J117-O117</f>
+        <f t="shared" ref="O124:O126" si="31">J117-O117</f>
         <v>-8.4004007493259564E-2</v>
       </c>
       <c r="P124" s="48">
-        <f t="shared" ref="P124:P126" si="31">K117-P117</f>
+        <f t="shared" ref="P124:P126" si="32">K117-P117</f>
         <v>0.23449697169752431</v>
       </c>
       <c r="Q124" s="48">
-        <f t="shared" ref="Q124:Q126" si="32">L117-Q117</f>
+        <f t="shared" ref="Q124:Q126" si="33">L117-Q117</f>
         <v>-9.2492904730339442E-2</v>
       </c>
       <c r="R124" s="49">
-        <f t="shared" ref="R124:R126" si="33">M117-R117</f>
+        <f t="shared" ref="R124:R126" si="34">M117-R117</f>
         <v>-5.8000059473925447E-2</v>
       </c>
       <c r="S124" s="54"/>
     </row>
-    <row r="125" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19">
+      <c r="A125" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="C125" s="8">
+        <f>SUM(B124:B125)*J9/C128</f>
+        <v>0</v>
+      </c>
+      <c r="D125" s="8">
+        <f>SUM(C124:C125)*K9/D128</f>
+        <v>4.0910884875803327E-2</v>
+      </c>
+      <c r="E125" s="8">
+        <f>SUM(D124:D125)*L9/E128</f>
+        <v>3.5881893348435973E-2</v>
+      </c>
+      <c r="F125" s="8"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="O125" s="47">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-5.5107961963151576E-2</v>
       </c>
       <c r="P125" s="48">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-9.2492904730339442E-2</v>
       </c>
       <c r="Q125" s="48">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.18564982610302955</v>
       </c>
       <c r="R125" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-3.8048959409538639E-2</v>
       </c>
       <c r="S125" s="54"/>
     </row>
-    <row r="126" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" ht="17.25" thickBot="1">
+      <c r="A126" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B126" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="C126" s="8">
+        <f>SUM(B125:B126)*J8/C128</f>
+        <v>0</v>
+      </c>
+      <c r="D126" s="8">
+        <f>SUM(C125:C126)*K8/D128</f>
+        <v>0</v>
+      </c>
+      <c r="E126" s="8">
+        <f>SUM(D125:D126)*L8/E128</f>
+        <v>1.4407445745510622E-2</v>
+      </c>
+      <c r="F126" s="8">
+        <f>SUM(E125:E126)*M8/F128</f>
+        <v>0.77065559157716967</v>
+      </c>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="O126" s="50">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-3.4556867693454292E-2</v>
       </c>
       <c r="P126" s="51">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-5.8000059473925447E-2</v>
       </c>
       <c r="Q126" s="51">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-3.8048959409538639E-2</v>
       </c>
       <c r="R126" s="53">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.13060588657691832</v>
       </c>
       <c r="S126" s="54"/>
     </row>
-    <row r="127" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19">
+      <c r="A127" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="C127" s="8">
+        <f>SUM(B126:B127)*J9/C128</f>
+        <v>0</v>
+      </c>
+      <c r="D127" s="8">
+        <f>SUM(C126:C127)*K9/D128</f>
+        <v>0</v>
+      </c>
+      <c r="E127" s="8">
+        <f>SUM(D126:D127)*L9/E128</f>
+        <v>0</v>
+      </c>
+      <c r="F127" s="8">
+        <f>SUM(E126:E127)*M9/F128</f>
+        <v>0.2293444084228303</v>
+      </c>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
@@ -4317,8 +4538,29 @@
       <c r="R127" s="37"/>
       <c r="S127" s="54"/>
     </row>
-    <row r="128" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="129" spans="10:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" ht="17.25" thickBot="1">
+      <c r="B128" s="60">
+        <v>0.58039108563834296</v>
+      </c>
+      <c r="C128" s="60">
+        <v>0.60671048688397655</v>
+      </c>
+      <c r="D128" s="60">
+        <v>0.7022798018878923</v>
+      </c>
+      <c r="E128" s="60">
+        <v>0.57099469580208306</v>
+      </c>
+      <c r="F128" s="60">
+        <v>7.4661789777195411E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="17.25" thickBot="1">
+      <c r="B129" s="60"/>
+      <c r="C129" s="60"/>
+      <c r="D129" s="60"/>
+      <c r="E129" s="60"/>
+      <c r="F129" s="60"/>
       <c r="J129" s="57">
         <f t="array" ref="J129:M129">MMULT(J124:M124,O123:R126)</f>
         <v>0.22371905087369007</v>
@@ -4332,6 +4574,620 @@
       <c r="M129" s="59">
         <v>0.11446383001026585</v>
       </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="B130">
+        <f>-LN(B128)</f>
+        <v>0.54405311708670723</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ref="C130:F130" si="35">-LN(C128)</f>
+        <v>0.49970355906051411</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="35"/>
+        <v>0.35342337617963077</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="35"/>
+        <v>0.56037535868261246</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="35"/>
+        <v>4.8973719264063913</v>
+      </c>
+      <c r="G130">
+        <f>SUM(B130:F130)</f>
+        <v>6.8549273374158561</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="17.25">
+      <c r="A134" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="8">
+        <f>SUM(C135:C136)*I9/B142</f>
+        <v>0.21482274809613308</v>
+      </c>
+      <c r="C135" s="8">
+        <f>SUM(D135:D136)*J9/C142</f>
+        <v>0</v>
+      </c>
+      <c r="D135" s="8">
+        <f>SUM(E135:E136)*K9</f>
+        <v>0</v>
+      </c>
+      <c r="E135" s="8">
+        <v>0</v>
+      </c>
+      <c r="F135" s="8"/>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B136" s="8">
+        <f>SUM(C136:C138)*I7/B142</f>
+        <v>0.785177251903867</v>
+      </c>
+      <c r="C136" s="8">
+        <f>SUM(D136:D138)*J7/C142</f>
+        <v>5.3008391102750844E-2</v>
+      </c>
+      <c r="D136" s="8">
+        <f>SUM(E136:E138)*K7</f>
+        <v>0</v>
+      </c>
+      <c r="E136" s="8">
+        <v>0</v>
+      </c>
+      <c r="F136" s="8"/>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8">
+        <f>SUM(D137:D138)*J9/C142</f>
+        <v>2.1806149642653934E-2</v>
+      </c>
+      <c r="D137" s="8">
+        <f>SUM(E137:E138)*K9</f>
+        <v>0</v>
+      </c>
+      <c r="E137" s="8">
+        <v>0</v>
+      </c>
+      <c r="F137" s="8"/>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8">
+        <f>SUM(D138:D139)*J8/C142</f>
+        <v>0.3532102576033902</v>
+      </c>
+      <c r="D138" s="8">
+        <f>SUM(E138:E139)*K8/D142</f>
+        <v>5.9747620630469706E-2</v>
+      </c>
+      <c r="E138" s="8">
+        <v>0</v>
+      </c>
+      <c r="F138" s="8"/>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8">
+        <f>SUM(D139:D140)*J9/C142</f>
+        <v>0.29557757340371482</v>
+      </c>
+      <c r="D139" s="8">
+        <f>SUM(E139:E140)*K9/D142</f>
+        <v>0.5471213806797629</v>
+      </c>
+      <c r="E139" s="8">
+        <f>SUM(F139:F140)*L9/E142</f>
+        <v>0.18526846281095682</v>
+      </c>
+      <c r="F139" s="8"/>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8">
+        <f>(D140+D141)*J8/C142</f>
+        <v>0.22881033801248046</v>
+      </c>
+      <c r="D140" s="8">
+        <f>(E140+E141)*K8/D142</f>
+        <v>0.2627445063292852</v>
+      </c>
+      <c r="E140" s="8">
+        <f>(F140+F141)*L8/E142</f>
+        <v>0.62228138635111052</v>
+      </c>
+      <c r="F140" s="8">
+        <f>F77/F142</f>
+        <v>0.49049333582266652</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8">
+        <f>D141*J9/C142</f>
+        <v>4.7587290235009912E-2</v>
+      </c>
+      <c r="D141" s="8">
+        <f>E141*K9/D142</f>
+        <v>0.13038649236048214</v>
+      </c>
+      <c r="E141" s="8">
+        <f>F141*L9/E142</f>
+        <v>0.19245015083793279</v>
+      </c>
+      <c r="F141" s="8">
+        <f>F78/F142</f>
+        <v>0.50950666417733359</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="B142">
+        <v>9.8587966877713443E-2</v>
+      </c>
+      <c r="C142">
+        <v>0.42322667138977799</v>
+      </c>
+      <c r="D142">
+        <v>0.33519912021761239</v>
+      </c>
+      <c r="E142">
+        <v>0.32314198099807478</v>
+      </c>
+      <c r="F142">
+        <v>0.2332650594434062</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="B144">
+        <f>-LN(B142)</f>
+        <v>2.3168060646007897</v>
+      </c>
+      <c r="C144">
+        <f t="shared" ref="C144:F144" si="36">-LN(C142)</f>
+        <v>0.85984737729117589</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="36"/>
+        <v>1.0930305350267813</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="36"/>
+        <v>1.1296634826884362</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="36"/>
+        <v>1.4555798778086744</v>
+      </c>
+      <c r="G144">
+        <f>SUM(B144:F144)</f>
+        <v>6.854927337415857</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="22">
+        <f>B121*B135</f>
+        <v>0.14788328533633552</v>
+      </c>
+      <c r="C149" s="22">
+        <f>C121*C135</f>
+        <v>0</v>
+      </c>
+      <c r="D149" s="22">
+        <f t="shared" ref="C149:F149" si="37">D121*D135</f>
+        <v>0</v>
+      </c>
+      <c r="E149" s="22">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F149" s="22">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B150" s="22">
+        <f t="shared" ref="B150:F155" si="38">B122*B136</f>
+        <v>0.24466376991946318</v>
+      </c>
+      <c r="C150" s="22">
+        <f t="shared" si="38"/>
+        <v>3.2806519512455286E-2</v>
+      </c>
+      <c r="D150" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E150" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F150" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="C151" s="22">
+        <f t="shared" si="38"/>
+        <v>1.7299392126142465E-3</v>
+      </c>
+      <c r="D151" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E151" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F151" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B152" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="C152" s="22">
+        <f t="shared" si="38"/>
+        <v>4.4685347755586455E-2</v>
+      </c>
+      <c r="D152" s="22">
+        <f t="shared" si="38"/>
+        <v>7.584871454263631E-3</v>
+      </c>
+      <c r="E152" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F152" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="C153" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="D153" s="22">
+        <f t="shared" si="38"/>
+        <v>2.2383219818080346E-2</v>
+      </c>
+      <c r="E153" s="22">
+        <f t="shared" si="38"/>
+        <v>6.6477832234114291E-3</v>
+      </c>
+      <c r="F153" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B154" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="C154" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="D154" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E154" s="22">
+        <f t="shared" si="38"/>
+        <v>8.9654853122947582E-3</v>
+      </c>
+      <c r="F154" s="22">
+        <f t="shared" si="38"/>
+        <v>0.37800143188307644</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="C155" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="D155" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E155" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F155" s="22">
+        <f t="shared" si="38"/>
+        <v>0.11685250448324024</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" s="33">
+        <f>B149/I6</f>
+        <v>0.42083461908461456</v>
+      </c>
+      <c r="C159" s="33">
+        <f t="shared" ref="C159:F159" si="39">C149/J6</f>
+        <v>0</v>
+      </c>
+      <c r="D159" s="33">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="E159" s="33">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="F159" s="33">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B160" s="33">
+        <f>B150/I7</f>
+        <v>1.3528416809508566</v>
+      </c>
+      <c r="C160" s="33">
+        <f t="shared" ref="C160:F160" si="40">C150/J7</f>
+        <v>8.7370158005671369E-2</v>
+      </c>
+      <c r="D160" s="33">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="E160" s="33">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="F160" s="33">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B161" s="33">
+        <f>(B152+B154)/I8</f>
+        <v>0</v>
+      </c>
+      <c r="C161" s="33">
+        <f t="shared" ref="C161:F161" si="41">(C152+C154)/J8</f>
+        <v>0.1814068826302293</v>
+      </c>
+      <c r="D161" s="33">
+        <f t="shared" si="41"/>
+        <v>7.01659223033297E-2</v>
+      </c>
+      <c r="E161" s="33">
+        <f t="shared" si="41"/>
+        <v>4.4585496755980024E-2</v>
+      </c>
+      <c r="F161" s="33">
+        <f t="shared" si="41"/>
+        <v>3.30377637103487</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="33">
+        <f>(B149+B151+B153+B155)/I9</f>
+        <v>0.37013447210316847</v>
+      </c>
+      <c r="C162" s="33">
+        <f t="shared" ref="C162:F162" si="42">(C149+C151+C153+C155)/J9</f>
+        <v>1.1199520805774498E-2</v>
+      </c>
+      <c r="D162" s="33">
+        <f t="shared" si="42"/>
+        <v>9.856105496068597E-2</v>
+      </c>
+      <c r="E162" s="33">
+        <f t="shared" si="42"/>
+        <v>5.4464695394104076E-2</v>
+      </c>
+      <c r="F162" s="33">
+        <f t="shared" si="42"/>
+        <v>0.98319229193634505</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="B163" s="61">
+        <f>SUM(B159:B162)</f>
+        <v>2.1438107721386395</v>
+      </c>
+      <c r="C163" s="61">
+        <f t="shared" ref="C163:F163" si="43">SUM(C159:C162)</f>
+        <v>0.27997656144167521</v>
+      </c>
+      <c r="D163" s="61">
+        <f t="shared" si="43"/>
+        <v>0.16872697726401567</v>
+      </c>
+      <c r="E163" s="61">
+        <f t="shared" si="43"/>
+        <v>9.9050192150084093E-2</v>
+      </c>
+      <c r="F163" s="61">
+        <f t="shared" si="43"/>
+        <v>4.2869686629712147</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="2"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="3"/>
+      <c r="B167" s="33"/>
+      <c r="C167" s="33"/>
+      <c r="D167" s="33"/>
+      <c r="E167" s="33"/>
+      <c r="F167" s="33"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="3"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="33"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="33"/>
+      <c r="F168" s="33"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="3"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
+      <c r="F169" s="33"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="3"/>
+      <c r="B170" s="33"/>
+      <c r="C170" s="33"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="33"/>
+      <c r="F170" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4344,20 +5200,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C6:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:19">
       <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
@@ -4377,7 +5233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:19">
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -4397,7 +5253,7 @@
         <v>0.22197619682315342</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:19">
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
@@ -4417,7 +5273,7 @@
         <v>0.54475874373344024</v>
       </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:19">
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
@@ -4437,7 +5293,7 @@
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:19">
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
@@ -4457,7 +5313,7 @@
         <v>0.11885010230613731</v>
       </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:19">
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
         <v>1</v>
@@ -4478,7 +5334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:19">
       <c r="C14" s="17" t="s">
         <v>25</v>
       </c>
@@ -4517,7 +5373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:19">
       <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
@@ -4556,7 +5412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:19">
       <c r="C16" s="17" t="s">
         <v>27</v>
       </c>
@@ -4595,7 +5451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:19">
       <c r="C17" s="17" t="s">
         <v>28</v>
       </c>
@@ -4634,7 +5490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:19">
       <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
@@ -4673,7 +5529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:19">
       <c r="C19" s="17" t="s">
         <v>30</v>
       </c>
@@ -4712,7 +5568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:19">
       <c r="C20" s="17" t="s">
         <v>31</v>
       </c>
@@ -4751,7 +5607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:19">
       <c r="I21" s="16">
         <f>SUM(I14:I20)</f>
         <v>1.0542480607368357E-3</v>
@@ -4764,19 +5620,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7">
       <c r="B2" s="56"/>
       <c r="C2" s="2" t="s">
         <v>47</v>
@@ -4794,7 +5650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7">
       <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
@@ -4814,7 +5670,7 @@
         <v>0.22197619682315342</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" s="3" t="s">
         <v>43</v>
       </c>
@@ -4834,7 +5690,7 @@
         <v>0.54475874373344024</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7">
       <c r="B5" s="3" t="s">
         <v>44</v>
       </c>
@@ -4854,7 +5710,7 @@
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -4874,7 +5730,7 @@
         <v>0.11885010230613731</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="17.25">
       <c r="B18" s="26" t="s">
         <v>36</v>
       </c>
@@ -4894,7 +5750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8">
       <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
@@ -4918,7 +5774,7 @@
         <v>2.0331503897692659E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8">
       <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
@@ -4942,7 +5798,7 @@
         <v>3.5856737790261391E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8">
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
@@ -4964,7 +5820,7 @@
         <v>1.0401419689087846E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8">
       <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
@@ -4986,7 +5842,7 @@
         <v>1.5147565938106887E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8">
       <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
@@ -5008,7 +5864,7 @@
         <v>5.9354920904657093E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8">
       <c r="B24" s="3" t="s">
         <v>44</v>
       </c>
@@ -5030,7 +5886,7 @@
         <v>8.124622989185554E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8">
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>

--- a/CTC.xlsx
+++ b/CTC.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -457,7 +458,71 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>matmul(  L</t>
+          <t>logit</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미분</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= matmul(  L</t>
         </r>
         <r>
           <rPr>
@@ -586,7 +651,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="53">
   <si>
     <t>blank</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -785,6 +850,10 @@
     <t>Zt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>logit에 대한 미분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -801,7 +870,7 @@
     <numFmt numFmtId="182" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="183" formatCode="_-* #,##0.0000000000000_-;\-* #,##0.0000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,6 +950,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -926,7 +1003,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1219,6 +1296,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1228,7 +1365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1413,6 +1550,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1717,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:AA170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4834,11 +4995,11 @@
         <v>0.14788328533633552</v>
       </c>
       <c r="C149" s="22">
-        <f>C121*C135</f>
+        <f t="shared" ref="C149:F149" si="37">C121*C135</f>
         <v>0</v>
       </c>
       <c r="D149" s="22">
-        <f t="shared" ref="C149:F149" si="37">D121*D135</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="E149" s="22">
@@ -4855,23 +5016,23 @@
         <v>43</v>
       </c>
       <c r="B150" s="22">
-        <f t="shared" ref="B150:F155" si="38">B122*B136</f>
+        <f t="shared" ref="B150:B155" si="38">B122*B136</f>
         <v>0.24466376991946318</v>
       </c>
       <c r="C150" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="C150:F150" si="39">C122*C136</f>
         <v>3.2806519512455286E-2</v>
       </c>
       <c r="D150" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E150" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="F150" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -4884,19 +5045,19 @@
         <v>0</v>
       </c>
       <c r="C151" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="C151:F151" si="40">C123*C137</f>
         <v>1.7299392126142465E-3</v>
       </c>
       <c r="D151" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="E151" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F151" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -4909,19 +5070,19 @@
         <v>0</v>
       </c>
       <c r="C152" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="C152:F152" si="41">C124*C138</f>
         <v>4.4685347755586455E-2</v>
       </c>
       <c r="D152" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>7.584871454263631E-3</v>
       </c>
       <c r="E152" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="F152" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -4934,19 +5095,19 @@
         <v>0</v>
       </c>
       <c r="C153" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="C153:F153" si="42">C125*C139</f>
         <v>0</v>
       </c>
       <c r="D153" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>2.2383219818080346E-2</v>
       </c>
       <c r="E153" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>6.6477832234114291E-3</v>
       </c>
       <c r="F153" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -4959,19 +5120,19 @@
         <v>0</v>
       </c>
       <c r="C154" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="C154:F154" si="43">C126*C140</f>
         <v>0</v>
       </c>
       <c r="D154" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="E154" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>8.9654853122947582E-3</v>
       </c>
       <c r="F154" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>0.37800143188307644</v>
       </c>
     </row>
@@ -4984,19 +5145,19 @@
         <v>0</v>
       </c>
       <c r="C155" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="C155:F155" si="44">C127*C141</f>
         <v>0</v>
       </c>
       <c r="D155" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E155" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F155" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0.11685250448324024</v>
       </c>
     </row>
@@ -5032,23 +5193,23 @@
         <v>21</v>
       </c>
       <c r="B159" s="33">
-        <f>B149/I6</f>
-        <v>0.42083461908461456</v>
+        <f t="shared" ref="B159:E159" si="45">0/I6</f>
+        <v>0</v>
       </c>
       <c r="C159" s="33">
-        <f t="shared" ref="C159:F159" si="39">C149/J6</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="D159" s="33">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E159" s="33">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F159" s="33">
-        <f t="shared" si="39"/>
+        <f>0/M6</f>
         <v>0</v>
       </c>
     </row>
@@ -5061,19 +5222,19 @@
         <v>1.3528416809508566</v>
       </c>
       <c r="C160" s="33">
-        <f t="shared" ref="C160:F160" si="40">C150/J7</f>
+        <f t="shared" ref="C160:F160" si="46">C150/J7</f>
         <v>8.7370158005671369E-2</v>
       </c>
       <c r="D160" s="33">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E160" s="33">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F160" s="33">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -5086,19 +5247,19 @@
         <v>0</v>
       </c>
       <c r="C161" s="33">
-        <f t="shared" ref="C161:F161" si="41">(C152+C154)/J8</f>
+        <f t="shared" ref="C161:F161" si="47">(C152+C154)/J8</f>
         <v>0.1814068826302293</v>
       </c>
       <c r="D161" s="33">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>7.01659223033297E-2</v>
       </c>
       <c r="E161" s="33">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>4.4585496755980024E-2</v>
       </c>
       <c r="F161" s="33">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>3.30377637103487</v>
       </c>
     </row>
@@ -5111,83 +5272,163 @@
         <v>0.37013447210316847</v>
       </c>
       <c r="C162" s="33">
-        <f t="shared" ref="C162:F162" si="42">(C149+C151+C153+C155)/J9</f>
+        <f t="shared" ref="C162:F162" si="48">(C149+C151+C153+C155)/J9</f>
         <v>1.1199520805774498E-2</v>
       </c>
       <c r="D162" s="33">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>9.856105496068597E-2</v>
       </c>
       <c r="E162" s="33">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>5.4464695394104076E-2</v>
       </c>
       <c r="F162" s="33">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.98319229193634505</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="B163" s="61">
         <f>SUM(B159:B162)</f>
-        <v>2.1438107721386395</v>
+        <v>1.7229761530540251</v>
       </c>
       <c r="C163" s="61">
-        <f t="shared" ref="C163:F163" si="43">SUM(C159:C162)</f>
+        <f t="shared" ref="C163:F163" si="49">SUM(C159:C162)</f>
         <v>0.27997656144167521</v>
       </c>
       <c r="D163" s="61">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0.16872697726401567</v>
       </c>
       <c r="E163" s="61">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>9.9050192150084093E-2</v>
       </c>
       <c r="F163" s="61">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>4.2869686629712147</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="2"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
+      <c r="A166" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="3"/>
-      <c r="B167" s="33"/>
-      <c r="C167" s="33"/>
-      <c r="D167" s="33"/>
-      <c r="E167" s="33"/>
-      <c r="F167" s="33"/>
+      <c r="A167" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B167" s="64">
+        <f>I6-1/I6/B$163*0</f>
+        <v>0.35140475291221601</v>
+      </c>
+      <c r="C167" s="67">
+        <f t="shared" ref="C167:F167" si="50">J6-1/J6/C$163*0</f>
+        <v>0.22371905087369007</v>
+      </c>
+      <c r="D167" s="63">
+        <f t="shared" si="50"/>
+        <v>0.1787166513658611</v>
+      </c>
+      <c r="E167" s="33">
+        <f t="shared" si="50"/>
+        <v>0.24930190636846544</v>
+      </c>
+      <c r="F167" s="33">
+        <f t="shared" si="50"/>
+        <v>0.22197619682315342</v>
+      </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="3"/>
-      <c r="B168" s="33"/>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="33"/>
+      <c r="A168" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B168" s="65">
+        <f t="shared" ref="B168:F168" si="51">I7-1/I7/B$163*B150</f>
+        <v>-0.60432551340073437</v>
+      </c>
+      <c r="C168" s="68">
+        <f t="shared" si="51"/>
+        <v>6.3426441592749405E-2</v>
+      </c>
+      <c r="D168" s="63">
+        <f t="shared" si="51"/>
+        <v>0.48608422841652699</v>
+      </c>
+      <c r="E168" s="33">
+        <f t="shared" si="51"/>
+        <v>0.42755611263345977</v>
+      </c>
+      <c r="F168" s="33">
+        <f t="shared" si="51"/>
+        <v>0.54475874373344024</v>
+      </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="3"/>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
-      <c r="F169" s="33"/>
+      <c r="A169" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B169" s="64">
+        <f>I8-1/I8/B$163*(B152+B154)</f>
+        <v>6.8204161449441303E-2</v>
+      </c>
+      <c r="C169" s="68">
+        <f t="shared" ref="C169:F169" si="52">J8-1/J8/C$163*(C152+C154)</f>
+        <v>-0.40160932247670467</v>
+      </c>
+      <c r="D169" s="63">
+        <f t="shared" si="52"/>
+        <v>-0.30775571635680055</v>
+      </c>
+      <c r="E169" s="33">
+        <f t="shared" si="52"/>
+        <v>-0.24904510094853205</v>
+      </c>
+      <c r="F169" s="33">
+        <f t="shared" si="52"/>
+        <v>-0.65624063443990088</v>
+      </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="3"/>
-      <c r="B170" s="33"/>
-      <c r="C170" s="33"/>
-      <c r="D170" s="33"/>
-      <c r="E170" s="33"/>
-      <c r="F170" s="33"/>
+      <c r="A170" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="65">
+        <f>I9-1/I9/B$163*(B149+B151+B153+B155)</f>
+        <v>0.18471659903907742</v>
+      </c>
+      <c r="C170" s="69">
+        <f t="shared" ref="C170:F170" si="53">J9-1/J9/C$163*(C149+C151+C153+C155)</f>
+        <v>0.11446383001026583</v>
+      </c>
+      <c r="D170" s="63">
+        <f t="shared" si="53"/>
+        <v>-0.35704516342558718</v>
+      </c>
+      <c r="E170" s="33">
+        <f t="shared" si="53"/>
+        <v>-0.42781291805339328</v>
+      </c>
+      <c r="F170" s="33">
+        <f t="shared" si="53"/>
+        <v>-0.11049430611669304</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5623,7 +5864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:B25"/>
     </sheetView>
   </sheetViews>
@@ -5916,4 +6157,17 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CTC.xlsx
+++ b/CTC.xlsx
@@ -651,7 +651,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="58">
   <si>
     <t>blank</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -854,6 +854,26 @@
     <t>logit에 대한 미분</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Ct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-log Ct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-log Dt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -870,7 +890,7 @@
     <numFmt numFmtId="182" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="183" formatCode="_-* #,##0.0000000000000_-;\-* #,##0.0000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,6 +978,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1365,7 +1394,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1575,6 +1604,15 @@
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1878,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:AA170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="J135" sqref="J135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4393,7 +4431,7 @@
     </row>
     <row r="120" spans="1:19" ht="17.25">
       <c r="A120" s="26" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>1</v>
@@ -4700,6 +4738,9 @@
       <c r="S127" s="54"/>
     </row>
     <row r="128" spans="1:19" ht="17.25" thickBot="1">
+      <c r="A128" s="71" t="s">
+        <v>53</v>
+      </c>
       <c r="B128" s="60">
         <v>0.58039108563834296</v>
       </c>
@@ -4737,6 +4778,9 @@
       </c>
     </row>
     <row r="130" spans="1:13">
+      <c r="A130" s="72" t="s">
+        <v>54</v>
+      </c>
       <c r="B130">
         <f>-LN(B128)</f>
         <v>0.54405311708670723</v>
@@ -4757,7 +4801,7 @@
         <f t="shared" si="35"/>
         <v>4.8973719264063913</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="70">
         <f>SUM(B130:F130)</f>
         <v>6.8549273374158561</v>
       </c>
@@ -4924,6 +4968,9 @@
       </c>
     </row>
     <row r="142" spans="1:13">
+      <c r="A142" s="71" t="s">
+        <v>56</v>
+      </c>
       <c r="B142">
         <v>9.8587966877713443E-2</v>
       </c>
@@ -4941,6 +4988,9 @@
       </c>
     </row>
     <row r="144" spans="1:13">
+      <c r="A144" s="72" t="s">
+        <v>55</v>
+      </c>
       <c r="B144">
         <f>-LN(B142)</f>
         <v>2.3168060646007897</v>
@@ -4961,7 +5011,7 @@
         <f t="shared" si="36"/>
         <v>1.4555798778086744</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="70">
         <f>SUM(B144:F144)</f>
         <v>6.854927337415857</v>
       </c>
